--- a/Анализ_объемов_рынков.xlsx
+++ b/Анализ_объемов_рынков.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Общий объем российского рынка (млн. руб)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Объем российского рынка одежды (млн. руб)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Объем российского рынка косметики (млн. руб)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Объем российского рынка аксесуаров (галантерейной продукции) (млн. руб)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Общий объем российского рынка (млрд. руб)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Объем российского рынка одежды (млрд. руб)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Объем российского рынка косметики (млрд. руб)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Объем российского рынка аксесуаров (галантерейной продукции) (млрд. руб)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
